--- a/螺纹/data_input/螺纹盘面成本.xlsx
+++ b/螺纹/data_input/螺纹盘面成本.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3531"/>
+  <dimension ref="A1:D3533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47457,6 +47457,34 @@
         <v>3389.45</v>
       </c>
     </row>
+    <row r="3532">
+      <c r="A3532" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3532" t="n">
+        <v>1779.5</v>
+      </c>
+      <c r="C3532" t="n">
+        <v>786.5</v>
+      </c>
+      <c r="D3532" t="n">
+        <v>3426.8</v>
+      </c>
+    </row>
+    <row r="3533">
+      <c r="A3533" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3533" t="n">
+        <v>1747.5</v>
+      </c>
+      <c r="C3533" t="n">
+        <v>792.5</v>
+      </c>
+      <c r="D3533" t="n">
+        <v>3421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
